--- a/Pycharm/CONSOLIDADOS - ÚLTIMAS CONTAS/Nova tabela Geração.xlsx
+++ b/Pycharm/CONSOLIDADOS - ÚLTIMAS CONTAS/Nova tabela Geração.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\CONSOLIDADOS - ÚLTIMAS CONTAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Pycharm\CONSOLIDADOS - ÚLTIMAS CONTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC59B317-0D10-41CD-B4F6-8D1F014B78F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857CAAE6-DB1F-4F3F-BB4F-365B93FF7043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="803" xr2:uid="{9F83ED37-374C-4ED9-8C53-FFB3D8D6D5CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" xr2:uid="{9F83ED37-374C-4ED9-8C53-FFB3D8D6D5CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="4" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="366">
   <si>
     <t>Cliente</t>
   </si>
@@ -1333,9 +1333,6 @@
   </si>
   <si>
     <t>C0² (Toneladas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2618,31 +2615,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2655,6 +2631,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2672,10 +2657,22 @@
     <xf numFmtId="14" fontId="0" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2697,6 +2694,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2712,24 +2727,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5309,25 +5306,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1078</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1066</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1427</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1593</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1770</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2076</c:v>
+                  <c:v>5783</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2338</c:v>
+                  <c:v>6401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5498,31 +5495,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2064</c:v>
+                  <c:v>5780</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1926</c:v>
+                  <c:v>5211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1857</c:v>
+                  <c:v>4947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1350</c:v>
+                  <c:v>3471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>873</c:v>
+                  <c:v>2188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1100</c:v>
+                  <c:v>2606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1048</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1489</c:v>
+                  <c:v>4083</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1556</c:v>
+                  <c:v>4423</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -7355,40 +7352,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2121</c:v>
+                  <c:v>5276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1906</c:v>
+                  <c:v>4740</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2010</c:v>
+                  <c:v>5001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1700</c:v>
+                  <c:v>4228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1495</c:v>
+                  <c:v>3719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1236</c:v>
+                  <c:v>3076</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1406</c:v>
+                  <c:v>3499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1550</c:v>
+                  <c:v>3856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1867</c:v>
+                  <c:v>4644</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2027</c:v>
+                  <c:v>5043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2158</c:v>
+                  <c:v>5367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7998,13 +7995,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.87396215758260376</c:v>
+                  <c:v>1.1476013490260859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91561705732843823</c:v>
+                  <c:v>1.3976644412324777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83230725783676918</c:v>
+                  <c:v>0.89753825681969401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9246,7 +9243,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9263,34 +9260,34 @@
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="48" t="str">
         <f>VLOOKUP($C$4,Acesso!$B:$E,2,0)</f>
-        <v xml:space="preserve">SMA </v>
-      </c>
-      <c r="C1" s="160" t="s">
+        <v>SolarView</v>
+      </c>
+      <c r="C1" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158" t="str">
+      <c r="D1" s="172"/>
+      <c r="E1" s="172" t="str">
         <f>VLOOKUP($C$4,Acesso!$B:$E,3,0)</f>
-        <v>valdecir@biroh.com.br</v>
-      </c>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="160" t="s">
+        <v>gelsotofolo@gmail.com</v>
+      </c>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="174" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158" t="str">
+      <c r="O1" s="172"/>
+      <c r="P1" s="172" t="str">
         <f>VLOOKUP($C$4,Acesso!$B:$E,4,0)</f>
-        <v>SMA12345</v>
-      </c>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="159"/>
+        <v>Solar12345</v>
+      </c>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="173"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9332,21 +9329,21 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="46" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="163"/>
+      <c r="C4" s="175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="177"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="164" t="s">
@@ -9356,7 +9353,7 @@
       <c r="E5" s="166"/>
       <c r="F5" s="40">
         <f>VLOOKUP($C$4,Tabela1[[#All],[Cliente]:[Pot.do módulo]],2,0)</f>
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="G5" s="164" t="s">
         <v>77</v>
@@ -9365,7 +9362,7 @@
       <c r="I5" s="166"/>
       <c r="J5" s="88">
         <f>VLOOKUP($C$4,Tabela1[[#All],[Cliente]:[Pot.do módulo]],3,0)</f>
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="K5" s="164" t="s">
         <v>84</v>
@@ -9375,30 +9372,30 @@
       <c r="N5" s="166"/>
       <c r="O5" s="40">
         <f>VLOOKUP($C$4,Tabela1[[#All],[Cliente]:[Potência]],4,0)</f>
-        <v>15.84</v>
+        <v>38.880000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="174">
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170">
         <f>VLOOKUP($C$4,Limpezas!B2:D72,2,0)</f>
-        <v>43216</v>
-      </c>
-      <c r="G6" s="175"/>
-      <c r="H6" s="171" t="s">
+        <v>43391</v>
+      </c>
+      <c r="G6" s="171"/>
+      <c r="H6" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="174">
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="170">
         <f>VLOOKUP($C$4,Limpezas!B2:D72,3,0)</f>
-        <v>43581.4</v>
-      </c>
-      <c r="L6" s="175"/>
+        <v>43756.4</v>
+      </c>
+      <c r="L6" s="171"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -9500,13 +9497,13 @@
         <f>ROUNDDOWN(AVERAGE(C8:N8),2)</f>
         <v>4.87</v>
       </c>
-      <c r="P8" s="176" t="s">
+      <c r="P8" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" s="176"/>
+      <c r="Q8" s="159"/>
       <c r="R8" s="47">
         <f>IFERROR(ROUNDDOWN(AVERAGE(O11,O13,O15,O17,O19,O21,O23,O25,O27),2),"")</f>
-        <v>32.229999999999997</v>
+        <v>46.3</v>
       </c>
       <c r="S8" s="26"/>
     </row>
@@ -9516,66 +9513,67 @@
       </c>
       <c r="C9" s="70">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,2,0)</f>
-        <v>2121</v>
+        <v>5276</v>
       </c>
       <c r="D9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,3,0)</f>
-        <v>1906</v>
+        <v>4740</v>
       </c>
       <c r="E9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,4,0)</f>
-        <v>2010</v>
+        <v>5001</v>
       </c>
       <c r="F9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,5,0)</f>
-        <v>1700</v>
+        <v>4228</v>
       </c>
       <c r="G9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,6,0)</f>
-        <v>1495</v>
+        <v>3719</v>
       </c>
       <c r="H9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,7,0)</f>
-        <v>1236</v>
+        <v>3076</v>
       </c>
       <c r="I9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,8,0)</f>
-        <v>1406</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>366</v>
+        <v>3499</v>
+      </c>
+      <c r="J9" s="30">
+        <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,10,0)</f>
+        <v>3856</v>
       </c>
       <c r="K9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,10,0)</f>
-        <v>1550</v>
+        <v>3856</v>
       </c>
       <c r="L9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,11,0)</f>
-        <v>1867</v>
+        <v>4644</v>
       </c>
       <c r="M9" s="30">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,12,0)</f>
-        <v>2027</v>
+        <v>5043</v>
       </c>
       <c r="N9" s="64">
         <f>VLOOKUP($C$4,'Ger Prev'!$B$3:$O$98,13,0)</f>
-        <v>2158</v>
+        <v>5367</v>
       </c>
       <c r="O9" s="29">
         <f>ROUNDDOWN(AVERAGE(C9:N9),1)</f>
-        <v>1770.5</v>
-      </c>
-      <c r="P9" s="176" t="s">
+        <v>4358.7</v>
+      </c>
+      <c r="P9" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="176"/>
+      <c r="Q9" s="159"/>
       <c r="R9" s="42">
         <f>IFERROR(AVERAGE(R10,R12,R14,R16,R18,R20,R22,R24,R26),"")</f>
-        <v>0.87396215758260376</v>
+        <v>1.1476013490260859</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169">
+      <c r="A10" s="162">
         <v>2018</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -9601,50 +9599,50 @@
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+G$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+G$3,0))</f>
         <v/>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="32" t="str">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+H$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+H$3,0))</f>
-        <v>1078</v>
-      </c>
-      <c r="I10" s="32">
+        <v/>
+      </c>
+      <c r="I10" s="32" t="str">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+I$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+I$3,0))</f>
-        <v>1066</v>
-      </c>
-      <c r="J10" s="32">
+        <v/>
+      </c>
+      <c r="J10" s="32" t="str">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+J$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+J$3,0))</f>
-        <v>1427</v>
-      </c>
-      <c r="K10" s="32">
+        <v/>
+      </c>
+      <c r="K10" s="32" t="str">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+K$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+K$3,0))</f>
-        <v>1593</v>
-      </c>
-      <c r="L10" s="32">
+        <v/>
+      </c>
+      <c r="L10" s="32" t="str">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+L$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+L$3,0))</f>
-        <v>1770</v>
+        <v/>
       </c>
       <c r="M10" s="32">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+M$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+M$3,0))</f>
-        <v>2076</v>
+        <v>5783</v>
       </c>
       <c r="N10" s="65">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+N$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,1+N$3,0))</f>
-        <v>2338</v>
+        <v>6401</v>
       </c>
       <c r="O10" s="31">
         <f>IFERROR(ROUNDDOWN(AVERAGE(C10:N10),1),"")</f>
-        <v>1621.1</v>
-      </c>
-      <c r="P10" s="177" t="str">
+        <v>6092</v>
+      </c>
+      <c r="P10" s="158" t="str">
         <f>"Efetividade Anual "&amp;A10</f>
         <v>Efetividade Anual 2018</v>
       </c>
-      <c r="Q10" s="177"/>
+      <c r="Q10" s="158"/>
       <c r="R10" s="43">
         <f>IFERROR(O10/$O$9,"")</f>
-        <v>0.91561705732843823</v>
+        <v>1.3976644412324777</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="170"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="33" t="s">
         <v>81</v>
       </c>
@@ -9668,41 +9666,41 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>22.45</v>
-      </c>
-      <c r="I11" s="34">
+        <v/>
+      </c>
+      <c r="I11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>22.2</v>
-      </c>
-      <c r="J11" s="34">
+        <v/>
+      </c>
+      <c r="J11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>29.72</v>
-      </c>
-      <c r="K11" s="34">
+        <v/>
+      </c>
+      <c r="K11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>33.18</v>
-      </c>
-      <c r="L11" s="34">
+        <v/>
+      </c>
+      <c r="L11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>36.869999999999997</v>
+        <v/>
       </c>
       <c r="M11" s="34">
         <f t="shared" si="0"/>
-        <v>43.25</v>
+        <v>53.54</v>
       </c>
       <c r="N11" s="66">
         <f t="shared" si="0"/>
-        <v>48.7</v>
+        <v>59.26</v>
       </c>
       <c r="O11" s="33">
         <f>IFERROR(ROUNDDOWN(AVERAGE(C11:N11),3),"")</f>
-        <v>33.767000000000003</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167">
+      <c r="A12" s="160">
         <v>2019</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -9710,39 +9708,39 @@
       </c>
       <c r="C12" s="73">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+C$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+C$3,0))</f>
-        <v>2064</v>
+        <v>5780</v>
       </c>
       <c r="D12" s="36">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+D$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+D$3,0))</f>
-        <v>1926</v>
+        <v>5211</v>
       </c>
       <c r="E12" s="36">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+E$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+E$3,0))</f>
-        <v>1857</v>
+        <v>4947</v>
       </c>
       <c r="F12" s="36">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+F$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+F$3,0))</f>
-        <v>1350</v>
+        <v>3471</v>
       </c>
       <c r="G12" s="36">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+G$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+G$3,0))</f>
-        <v>873</v>
+        <v>2188</v>
       </c>
       <c r="H12" s="36">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+H$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+H$3,0))</f>
-        <v>1100</v>
+        <v>2606</v>
       </c>
       <c r="I12" s="36">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+I$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+I$3,0))</f>
-        <v>1048</v>
+        <v>2500</v>
       </c>
       <c r="J12" s="36">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+J$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+J$3,0))</f>
-        <v>1489</v>
+        <v>4083</v>
       </c>
       <c r="K12" s="36">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+K$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+K$3,0))</f>
-        <v>1556</v>
+        <v>4423</v>
       </c>
       <c r="L12" s="36" t="str">
         <f>IF(VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+L$3,0)=0,"",VLOOKUP($C$4,'Ger Efet'!$A:$DE,13+L$3,0))</f>
@@ -9758,58 +9756,58 @@
       </c>
       <c r="O12" s="35">
         <f>IFERROR(ROUNDDOWN(AVERAGE(C12:N12),1),"")</f>
-        <v>1473.6</v>
-      </c>
-      <c r="P12" s="177" t="str">
+        <v>3912.1</v>
+      </c>
+      <c r="P12" s="158" t="str">
         <f>"Efetividade Anual "&amp;A12</f>
         <v>Efetividade Anual 2019</v>
       </c>
-      <c r="Q12" s="177"/>
+      <c r="Q12" s="158"/>
       <c r="R12" s="43">
         <f>IFERROR(O12/$O$9,"")</f>
-        <v>0.83230725783676918</v>
+        <v>0.89753825681969401</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="168"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="37" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="74">
         <f t="shared" ref="C13:N13" si="1">IF(C12 = "", "", ROUNDDOWN(C12/$F$5,2))</f>
-        <v>43</v>
+        <v>53.51</v>
       </c>
       <c r="D13" s="62">
         <f t="shared" si="1"/>
-        <v>40.119999999999997</v>
+        <v>48.25</v>
       </c>
       <c r="E13" s="62">
         <f t="shared" si="1"/>
-        <v>38.68</v>
+        <v>45.8</v>
       </c>
       <c r="F13" s="62">
         <f>IF(F12 = "", "", ROUNDDOWN(F12/$F$5,2))</f>
-        <v>28.12</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="G13" s="62">
         <f t="shared" si="1"/>
-        <v>18.18</v>
+        <v>20.25</v>
       </c>
       <c r="H13" s="62">
         <f t="shared" si="1"/>
-        <v>22.91</v>
+        <v>24.12</v>
       </c>
       <c r="I13" s="62">
         <f t="shared" si="1"/>
-        <v>21.83</v>
+        <v>23.14</v>
       </c>
       <c r="J13" s="62">
         <f t="shared" si="1"/>
-        <v>31.02</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K13" s="62">
         <f t="shared" si="1"/>
-        <v>32.409999999999997</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="L13" s="62" t="str">
         <f t="shared" si="1"/>
@@ -9825,11 +9823,11 @@
       </c>
       <c r="O13" s="38">
         <f>IFERROR(ROUNDDOWN(AVERAGE(C13:N13),3),"")</f>
-        <v>30.696000000000002</v>
+        <v>36.216000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="169">
+      <c r="A14" s="162">
         <v>2020</v>
       </c>
       <c r="B14" s="31" t="s">
@@ -9887,18 +9885,18 @@
         <f>IFERROR(AVERAGE(C14:N14),"")</f>
         <v/>
       </c>
-      <c r="P14" s="177" t="str">
+      <c r="P14" s="158" t="str">
         <f>"Efetividade Anual "&amp;A14</f>
         <v>Efetividade Anual 2020</v>
       </c>
-      <c r="Q14" s="177"/>
+      <c r="Q14" s="158"/>
       <c r="R14" s="44" t="str">
         <f>IFERROR(O14/$O$9,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="170"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="33" t="s">
         <v>81</v>
       </c>
@@ -9956,7 +9954,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="167">
+      <c r="A16" s="160">
         <v>2021</v>
       </c>
       <c r="B16" s="35" t="s">
@@ -10014,18 +10012,18 @@
         <f t="shared" ref="O16:O26" si="3">IFERROR(AVERAGE(C16:N16),"")</f>
         <v/>
       </c>
-      <c r="P16" s="177" t="str">
+      <c r="P16" s="158" t="str">
         <f>"Efetividade Anual "&amp;A16</f>
         <v>Efetividade Anual 2021</v>
       </c>
-      <c r="Q16" s="177"/>
+      <c r="Q16" s="158"/>
       <c r="R16" s="44" t="str">
         <f>IFERROR(O16/$O$9,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="168"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="37" t="s">
         <v>81</v>
       </c>
@@ -10083,7 +10081,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169">
+      <c r="A18" s="162">
         <v>2022</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -10141,18 +10139,18 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P18" s="177" t="str">
+      <c r="P18" s="158" t="str">
         <f>"Efetividade Anual "&amp;A18</f>
         <v>Efetividade Anual 2022</v>
       </c>
-      <c r="Q18" s="177"/>
+      <c r="Q18" s="158"/>
       <c r="R18" s="44" t="str">
         <f>IFERROR(O18/$O$9,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="170"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="33" t="s">
         <v>81</v>
       </c>
@@ -10210,7 +10208,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167">
+      <c r="A20" s="160">
         <v>2023</v>
       </c>
       <c r="B20" s="35" t="s">
@@ -10268,18 +10266,18 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P20" s="177" t="str">
+      <c r="P20" s="158" t="str">
         <f>"Efetividade Anual "&amp;A20</f>
         <v>Efetividade Anual 2023</v>
       </c>
-      <c r="Q20" s="177"/>
+      <c r="Q20" s="158"/>
       <c r="R20" s="44" t="str">
         <f>IFERROR(O20/$O$9,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="168"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="37" t="s">
         <v>81</v>
       </c>
@@ -10337,7 +10335,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="169">
+      <c r="A22" s="162">
         <v>2024</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -10395,18 +10393,18 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P22" s="177" t="str">
+      <c r="P22" s="158" t="str">
         <f>"Efetividade Anual "&amp;A22</f>
         <v>Efetividade Anual 2024</v>
       </c>
-      <c r="Q22" s="177"/>
+      <c r="Q22" s="158"/>
       <c r="R22" s="44" t="str">
         <f>IFERROR(O22/$O$9,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="170"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="33" t="s">
         <v>81</v>
       </c>
@@ -10464,7 +10462,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="167">
+      <c r="A24" s="160">
         <v>2025</v>
       </c>
       <c r="B24" s="35" t="s">
@@ -10522,18 +10520,18 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P24" s="177" t="str">
+      <c r="P24" s="158" t="str">
         <f>"Efetividade Anual "&amp;A24</f>
         <v>Efetividade Anual 2025</v>
       </c>
-      <c r="Q24" s="177"/>
+      <c r="Q24" s="158"/>
       <c r="R24" s="44" t="str">
         <f>IFERROR(O24/$O$9,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="168"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="37" t="s">
         <v>81</v>
       </c>
@@ -10591,7 +10589,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="169">
+      <c r="A26" s="162">
         <v>2026</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -10649,18 +10647,18 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P26" s="177" t="str">
+      <c r="P26" s="158" t="str">
         <f>"Efetividade Anual "&amp;A26</f>
         <v>Efetividade Anual 2026</v>
       </c>
-      <c r="Q26" s="177"/>
+      <c r="Q26" s="158"/>
       <c r="R26" s="45" t="str">
         <f>IFERROR(O26/$O$9,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="33" t="s">
         <v>81</v>
       </c>
@@ -10720,23 +10718,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C4:O4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="K5:N5"/>
@@ -10747,11 +10733,23 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:L6">
     <cfRule type="cellIs" dxfId="86" priority="1" operator="between">
@@ -19157,8 +19155,8 @@
   </sheetPr>
   <dimension ref="A1:AD300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="AC75" sqref="AC75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24241,7 +24239,7 @@
         <v>975</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="26"/>
+        <f>ROUNDDOWN($AD50*$AC50*(AB50*AB$2),0)</f>
         <v>1037</v>
       </c>
       <c r="O50" s="3">
@@ -30106,149 +30104,149 @@
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A1" s="109"/>
-      <c r="B1" s="190">
+      <c r="B1" s="184">
         <v>2018</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193">
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187">
         <v>2019</v>
       </c>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="184">
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190">
         <v>2020</v>
       </c>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="185"/>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="185"/>
-      <c r="AJ1" s="185"/>
-      <c r="AK1" s="186"/>
-      <c r="AL1" s="184">
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="192"/>
+      <c r="AL1" s="190">
         <v>2021</v>
       </c>
-      <c r="AM1" s="185"/>
-      <c r="AN1" s="185"/>
-      <c r="AO1" s="185"/>
-      <c r="AP1" s="185"/>
-      <c r="AQ1" s="185"/>
-      <c r="AR1" s="185"/>
-      <c r="AS1" s="185"/>
-      <c r="AT1" s="185"/>
-      <c r="AU1" s="185"/>
-      <c r="AV1" s="185"/>
-      <c r="AW1" s="186"/>
-      <c r="AX1" s="184">
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="192"/>
+      <c r="AX1" s="190">
         <v>2022</v>
       </c>
-      <c r="AY1" s="185"/>
-      <c r="AZ1" s="185"/>
-      <c r="BA1" s="185"/>
-      <c r="BB1" s="185"/>
-      <c r="BC1" s="185"/>
-      <c r="BD1" s="185"/>
-      <c r="BE1" s="185"/>
-      <c r="BF1" s="185"/>
-      <c r="BG1" s="185"/>
-      <c r="BH1" s="185"/>
-      <c r="BI1" s="186"/>
-      <c r="BJ1" s="184">
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="192"/>
+      <c r="BJ1" s="190">
         <v>2023</v>
       </c>
-      <c r="BK1" s="185"/>
-      <c r="BL1" s="185"/>
-      <c r="BM1" s="185"/>
-      <c r="BN1" s="185"/>
-      <c r="BO1" s="185"/>
-      <c r="BP1" s="185"/>
-      <c r="BQ1" s="185"/>
-      <c r="BR1" s="185"/>
-      <c r="BS1" s="185"/>
-      <c r="BT1" s="185"/>
-      <c r="BU1" s="186"/>
-      <c r="BV1" s="184">
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="191"/>
+      <c r="BO1" s="191"/>
+      <c r="BP1" s="191"/>
+      <c r="BQ1" s="191"/>
+      <c r="BR1" s="191"/>
+      <c r="BS1" s="191"/>
+      <c r="BT1" s="191"/>
+      <c r="BU1" s="192"/>
+      <c r="BV1" s="190">
         <v>2024</v>
       </c>
-      <c r="BW1" s="185"/>
-      <c r="BX1" s="185"/>
-      <c r="BY1" s="185"/>
-      <c r="BZ1" s="185"/>
-      <c r="CA1" s="185"/>
-      <c r="CB1" s="185"/>
-      <c r="CC1" s="185"/>
-      <c r="CD1" s="185"/>
-      <c r="CE1" s="185"/>
-      <c r="CF1" s="185"/>
-      <c r="CG1" s="186"/>
-      <c r="CH1" s="184">
+      <c r="BW1" s="191"/>
+      <c r="BX1" s="191"/>
+      <c r="BY1" s="191"/>
+      <c r="BZ1" s="191"/>
+      <c r="CA1" s="191"/>
+      <c r="CB1" s="191"/>
+      <c r="CC1" s="191"/>
+      <c r="CD1" s="191"/>
+      <c r="CE1" s="191"/>
+      <c r="CF1" s="191"/>
+      <c r="CG1" s="192"/>
+      <c r="CH1" s="190">
         <v>2025</v>
       </c>
-      <c r="CI1" s="185"/>
-      <c r="CJ1" s="185"/>
-      <c r="CK1" s="185"/>
-      <c r="CL1" s="185"/>
-      <c r="CM1" s="185"/>
-      <c r="CN1" s="185"/>
-      <c r="CO1" s="185"/>
-      <c r="CP1" s="185"/>
-      <c r="CQ1" s="185"/>
-      <c r="CR1" s="185"/>
-      <c r="CS1" s="186"/>
-      <c r="CT1" s="184">
+      <c r="CI1" s="191"/>
+      <c r="CJ1" s="191"/>
+      <c r="CK1" s="191"/>
+      <c r="CL1" s="191"/>
+      <c r="CM1" s="191"/>
+      <c r="CN1" s="191"/>
+      <c r="CO1" s="191"/>
+      <c r="CP1" s="191"/>
+      <c r="CQ1" s="191"/>
+      <c r="CR1" s="191"/>
+      <c r="CS1" s="192"/>
+      <c r="CT1" s="190">
         <v>2026</v>
       </c>
-      <c r="CU1" s="185"/>
-      <c r="CV1" s="185"/>
-      <c r="CW1" s="185"/>
-      <c r="CX1" s="185"/>
-      <c r="CY1" s="185"/>
-      <c r="CZ1" s="185"/>
-      <c r="DA1" s="185"/>
-      <c r="DB1" s="185"/>
-      <c r="DC1" s="185"/>
-      <c r="DD1" s="185"/>
-      <c r="DE1" s="186"/>
+      <c r="CU1" s="191"/>
+      <c r="CV1" s="191"/>
+      <c r="CW1" s="191"/>
+      <c r="CX1" s="191"/>
+      <c r="CY1" s="191"/>
+      <c r="CZ1" s="191"/>
+      <c r="DA1" s="191"/>
+      <c r="DB1" s="191"/>
+      <c r="DC1" s="191"/>
+      <c r="DD1" s="191"/>
+      <c r="DE1" s="192"/>
     </row>
     <row r="2" spans="1:109" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="109"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="189"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
       <c r="N2" s="196" t="s">
         <v>64</v>
       </c>
@@ -30263,104 +30261,104 @@
       <c r="W2" s="197"/>
       <c r="X2" s="197"/>
       <c r="Y2" s="198"/>
-      <c r="Z2" s="187" t="s">
+      <c r="Z2" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="188"/>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="188"/>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="188"/>
-      <c r="AJ2" s="188"/>
-      <c r="AK2" s="189"/>
-      <c r="AL2" s="187" t="s">
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="194"/>
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="188"/>
-      <c r="AN2" s="188"/>
-      <c r="AO2" s="188"/>
-      <c r="AP2" s="188"/>
-      <c r="AQ2" s="188"/>
-      <c r="AR2" s="188"/>
-      <c r="AS2" s="188"/>
-      <c r="AT2" s="188"/>
-      <c r="AU2" s="188"/>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="189"/>
-      <c r="AX2" s="187" t="s">
+      <c r="AM2" s="194"/>
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="194"/>
+      <c r="AP2" s="194"/>
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="194"/>
+      <c r="AT2" s="194"/>
+      <c r="AU2" s="194"/>
+      <c r="AV2" s="194"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="AY2" s="188"/>
-      <c r="AZ2" s="188"/>
-      <c r="BA2" s="188"/>
-      <c r="BB2" s="188"/>
-      <c r="BC2" s="188"/>
-      <c r="BD2" s="188"/>
-      <c r="BE2" s="188"/>
-      <c r="BF2" s="188"/>
-      <c r="BG2" s="188"/>
-      <c r="BH2" s="188"/>
-      <c r="BI2" s="189"/>
-      <c r="BJ2" s="187" t="s">
+      <c r="AY2" s="194"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="194"/>
+      <c r="BB2" s="194"/>
+      <c r="BC2" s="194"/>
+      <c r="BD2" s="194"/>
+      <c r="BE2" s="194"/>
+      <c r="BF2" s="194"/>
+      <c r="BG2" s="194"/>
+      <c r="BH2" s="194"/>
+      <c r="BI2" s="195"/>
+      <c r="BJ2" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="BK2" s="188"/>
-      <c r="BL2" s="188"/>
-      <c r="BM2" s="188"/>
-      <c r="BN2" s="188"/>
-      <c r="BO2" s="188"/>
-      <c r="BP2" s="188"/>
-      <c r="BQ2" s="188"/>
-      <c r="BR2" s="188"/>
-      <c r="BS2" s="188"/>
-      <c r="BT2" s="188"/>
-      <c r="BU2" s="189"/>
-      <c r="BV2" s="187" t="s">
+      <c r="BK2" s="194"/>
+      <c r="BL2" s="194"/>
+      <c r="BM2" s="194"/>
+      <c r="BN2" s="194"/>
+      <c r="BO2" s="194"/>
+      <c r="BP2" s="194"/>
+      <c r="BQ2" s="194"/>
+      <c r="BR2" s="194"/>
+      <c r="BS2" s="194"/>
+      <c r="BT2" s="194"/>
+      <c r="BU2" s="195"/>
+      <c r="BV2" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="BW2" s="188"/>
-      <c r="BX2" s="188"/>
-      <c r="BY2" s="188"/>
-      <c r="BZ2" s="188"/>
-      <c r="CA2" s="188"/>
-      <c r="CB2" s="188"/>
-      <c r="CC2" s="188"/>
-      <c r="CD2" s="188"/>
-      <c r="CE2" s="188"/>
-      <c r="CF2" s="188"/>
-      <c r="CG2" s="189"/>
-      <c r="CH2" s="187" t="s">
+      <c r="BW2" s="194"/>
+      <c r="BX2" s="194"/>
+      <c r="BY2" s="194"/>
+      <c r="BZ2" s="194"/>
+      <c r="CA2" s="194"/>
+      <c r="CB2" s="194"/>
+      <c r="CC2" s="194"/>
+      <c r="CD2" s="194"/>
+      <c r="CE2" s="194"/>
+      <c r="CF2" s="194"/>
+      <c r="CG2" s="195"/>
+      <c r="CH2" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="CI2" s="188"/>
-      <c r="CJ2" s="188"/>
-      <c r="CK2" s="188"/>
-      <c r="CL2" s="188"/>
-      <c r="CM2" s="188"/>
-      <c r="CN2" s="188"/>
-      <c r="CO2" s="188"/>
-      <c r="CP2" s="188"/>
-      <c r="CQ2" s="188"/>
-      <c r="CR2" s="188"/>
-      <c r="CS2" s="189"/>
-      <c r="CT2" s="187" t="s">
+      <c r="CI2" s="194"/>
+      <c r="CJ2" s="194"/>
+      <c r="CK2" s="194"/>
+      <c r="CL2" s="194"/>
+      <c r="CM2" s="194"/>
+      <c r="CN2" s="194"/>
+      <c r="CO2" s="194"/>
+      <c r="CP2" s="194"/>
+      <c r="CQ2" s="194"/>
+      <c r="CR2" s="194"/>
+      <c r="CS2" s="195"/>
+      <c r="CT2" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="CU2" s="188"/>
-      <c r="CV2" s="188"/>
-      <c r="CW2" s="188"/>
-      <c r="CX2" s="188"/>
-      <c r="CY2" s="188"/>
-      <c r="CZ2" s="188"/>
-      <c r="DA2" s="188"/>
-      <c r="DB2" s="188"/>
-      <c r="DC2" s="188"/>
-      <c r="DD2" s="188"/>
-      <c r="DE2" s="189"/>
+      <c r="CU2" s="194"/>
+      <c r="CV2" s="194"/>
+      <c r="CW2" s="194"/>
+      <c r="CX2" s="194"/>
+      <c r="CY2" s="194"/>
+      <c r="CZ2" s="194"/>
+      <c r="DA2" s="194"/>
+      <c r="DB2" s="194"/>
+      <c r="DC2" s="194"/>
+      <c r="DD2" s="194"/>
+      <c r="DE2" s="195"/>
     </row>
     <row r="3" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
@@ -39436,17 +39434,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="Z1:AK1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:Y2"/>
-    <mergeCell ref="Z2:AK2"/>
-    <mergeCell ref="AL1:AW1"/>
-    <mergeCell ref="AL2:AW2"/>
-    <mergeCell ref="AX1:BI1"/>
-    <mergeCell ref="AX2:BI2"/>
-    <mergeCell ref="BJ1:BU1"/>
     <mergeCell ref="BV1:CG1"/>
     <mergeCell ref="BJ2:BU2"/>
     <mergeCell ref="BV2:CG2"/>
@@ -39454,6 +39441,17 @@
     <mergeCell ref="CT1:DE1"/>
     <mergeCell ref="CH2:CS2"/>
     <mergeCell ref="CT2:DE2"/>
+    <mergeCell ref="AL1:AW1"/>
+    <mergeCell ref="AL2:AW2"/>
+    <mergeCell ref="AX1:BI1"/>
+    <mergeCell ref="AX2:BI2"/>
+    <mergeCell ref="BJ1:BU1"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="Z1:AK1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:Y2"/>
+    <mergeCell ref="Z2:AK2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
